--- a/mail_config.xlsx
+++ b/mail_config.xlsx
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D3" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -491,7 +491,7 @@
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -531,10 +531,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
